--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="548">
   <si>
     <t>№</t>
   </si>
@@ -22,190 +22,274 @@
     <t>Модель</t>
   </si>
   <si>
-    <t>Apple iPhone 14 Pro Max 128Gb Space Black (A2651, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 1Tb Silver (A2894, EU)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 1Tb Silver (A2894)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 1Tb Silver (A2896, Dual)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 1Tb Gold (A2896, Dual)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 1Tb Purple (A2896, Dual)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 1Tb Space Black (A2896, Dual)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 512Gb Purple (A2894)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 1Tb Gold (A2894, EU)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 1Tb Purple (A2651, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 512Gb Gold (A2894, EU)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 512Gb Gold (A2896, Dual)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 1Tb Space Black (A2651, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 1Tb Gold (A2651, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 256Gb Purple (A2893)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 256Gb Space Black (A2894)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 512Gb Gold (A2651, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 512Gb Space Black (A2651, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 256Gb Space Black (A2893)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 256Gb Gold (A2896, Dual)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max 256Gb Gold (A2894, EU)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 1Tb Blue Titanium (A3108, Dual)</t>
+    <t>Apple iPhone 16 Pro Max 1024Gb Black Titanium (A3084, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 1024Gb White Titanium (A3295)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 512Gb Black Titanium (A3295)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 512Gb Natural Titanium (A3295)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 512Gb Natural Titanium (A3084, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 512Gb Desert Titanium (A3084, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256Gb Desert Titanium (A3296, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256Gb Natural Titanium (A3296, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256Gb Black Titanium (A3295)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256Gb White Titanium (A3295)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256Gb Black Titanium (A3084, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256Gb Desert Titanium (A3084, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256Gb Desert Titanium (A3295)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256Gb Natural Titanium (A3084, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256Gb White Titanium (A3084, LL)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Z Fold 6 1024Gb+12Gb 5G Grey (SM-F956BZSNCAU)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Z Fold 6 512Gb+12Gb 5G Blue (SM-F956BDBCCAU)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Z Fold 6 512Gb+12Gb 5G Grey (SM-F956BZSCCAU)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Z Fold 6 256Gb+12Gb 5G Blue (SM-F956BDBBCAU)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Z Fold 6 256Gb+12Gb 5G Grey (SM-F956BZSBCAU)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Z Fold 6 256Gb+12Gb 5G Pink (SM-F956BLIBCAU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 1024Gb Desert Titanium (A3293)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 1024Gb White Titanium (A3293, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 1024Gb Desert Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 1024Gb Natural Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 1024Gb Black Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 1024Gb White Titanium (A3293)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 1024Gb White Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 512Gb Black Titanium (A3293)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 512Gb Desert Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 512Gb Black Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 512Gb Natural Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 512Gb Black Titanium (A3083, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 512Gb Desert Titanium (A3083, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 512Gb White Titanium (A3083, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 512Gb White Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 256Gb White Titanium (A3293)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 256Gb Black Titanium (A3083, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 256Gb Natural Titanium (A3083, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 256Gb White Titanium (A3083, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 256Gb White Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb Black Titanium (A3293, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb Natural Titanium (A3293, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb Black Titanium (A3083, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb Black Titanium (A3294, Dual)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb Desert Titanium (A3083, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb Desert Titanium (A3293, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb Natural Titanium (A3083, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb Natural Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb White Titanium (A3083, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb Natural Titanium (A3294, Dual)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb White Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb White Titanium (A3294, Dual)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 128Gb Desert Titanium (A3292)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 1Tb Natural Titanium (A3106)</t>
   </si>
   <si>
     <t>Apple iPhone 15 Pro Max 1Tb Natural Titanium (A3106, EU)</t>
   </si>
   <si>
+    <t>Apple iPhone 15 Pro Max 1Tb Blue Titanium (A2849, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 1Tb Natural Titanium (A2849, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 1Tb White Titanium (A2849, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 1Tb Black Titanium (A3106, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 1Tb Blue Titanium (A3106, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 1Tb Black Titanium (A3106)</t>
+  </si>
+  <si>
     <t>Apple iPhone 15 Pro Max 1Tb White Titanium (A3106)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro Max 1Tb White Titanium (A3105)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 512Gb Blue Titanium (A3108, Dual)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 1Tb Natural Titanium (A3105)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 1Tb Natural Titanium (A3106)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 1Tb Black Titanium (A3105)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 1Tb Black Titanium (A3106, EU)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 1Tb Blue Titanium (A3105)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 1Tb Blue Titanium (A3106, EU)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 1Tb Blue Titanium (A2849, LL)</t>
+    <t>Apple iPhone 15 Pro Max 1Tb White Titanium (A3106, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 512Gb White Titanium (A3106, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 1Tb Black Titanium (A2849, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 512Gb Natural Titanium (A3106, EU)</t>
   </si>
   <si>
     <t>Apple iPhone 15 Pro Max 512Gb White Titanium (A3105)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro Max 512Gb White Titanium (A3106, EU)</t>
+    <t>Apple iPhone 15 Pro Max 512Gb Blue Titanium (A3106, EU)</t>
   </si>
   <si>
     <t>Apple iPhone 15 Pro Max 512Gb White Titanium (A3106)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro Max 1Tb Black Titanium (A2849, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 512Gb Natural Titanium (A3105)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 512Gb Black Titanium (A3106, EU)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 512Gb Black Titanium (A3105)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 512Gb Black Titanium (A3106)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 512Gb Blue Titanium (A3105)</t>
+    <t>Apple iPhone 15 Pro Max 512Gb Black Titanium (A2849, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 512Gb Blue Titanium (A2849, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 512Gb Natural Titanium (A2849, LL)</t>
   </si>
   <si>
     <t>Apple iPhone 15 Pro Max 512Gb White Titanium (A2849, LL)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro Max 512Gb Black Titanium (A2849, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 512Gb Blue Titanium (A2849, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 256Gb Natural Titanium (A3106, EU)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 256Gb Black Titanium (A3106, EU)</t>
+    <t>Apple iPhone 15 Pro Max 512Gb Black Titanium (A2849, LL) (Уценка)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 256Gb White Titanium (A3106, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 256Gb Black Titanium (A3105)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 256Gb White Titanium (A3106)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 256Gb Natural Titanium (A3105)</t>
   </si>
   <si>
     <t>Apple iPhone 15 Pro Max 256Gb Natural Titanium (A3106)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro Max 256Gb White Titanium (A3106, EU)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 256Gb Black Titanium (A3105)</t>
-  </si>
-  <si>
     <t>Apple iPhone 15 Pro Max 256Gb Black Titanium (A3106)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro Max 256Gb Natural Titanium (A3105)</t>
+    <t>Apple iPhone 15 Pro Max 256Gb Blue Titanium (A3106)</t>
   </si>
   <si>
     <t>Apple iPhone 15 Pro Max 256Gb White Titanium (A3105)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro Max 256Gb White Titanium (A3106)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 256Gb Blue Titanium (A3106)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 256Gb Blue Titanium (A3106, EU)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 256Gb Blue Titanium (A3105)</t>
+    <t>Apple iPhone 15 Pro Max 256Gb Black Titanium (A2849, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 256Gb Blue Titanium (A2849, LL)</t>
   </si>
   <si>
     <t>Apple iPhone 15 Pro Max 256Gb Natural Titanium (A2849, LL)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro Max 256Gb Black Titanium (A2849, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 256Gb Blue Titanium (A2849, LL)</t>
-  </si>
-  <si>
     <t>Apple iPhone 15 Pro Max 256Gb White Titanium (A2849, LL)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro 1Tb Black Titanium (A3101)</t>
+    <t>Apple iPhone 15 Pro 1Tb White Titanium (A3101)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 1Tb Black Titanium (A2848, LL)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 1Tb Blue Titanium (A2848, LL)</t>
   </si>
   <si>
     <t>Apple iPhone 15 Pro 1Tb Black Titanium (A3102)</t>
@@ -217,358 +301,355 @@
     <t>Apple iPhone 15 Pro 1Tb Blue Titanium (A3102)</t>
   </si>
   <si>
+    <t>Apple iPhone 15 Pro 1Tb Blue Titanium (A3102, EU)</t>
+  </si>
+  <si>
     <t>Apple iPhone 15 Pro 1Tb Natural Titanium (A3101)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro 1Tb White Titanium (A2848, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro 1Tb Black Titanium (A2848, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro 1Tb Blue Titanium (A2848, LL)</t>
+    <t>Apple iPhone 15 Pro 1Tb Natural Titanium (A3102, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 1Tb White Titanium (A3102)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 1Tb White Titanium (A3102, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 512Gb Black Titanium (A3101)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 512Gb Natural Titanium (A3102, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 512Gb White Titanium (A3102, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 512Gb Blue Titanium (A3102, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 512Gb Blue Titanium (A3101)</t>
   </si>
   <si>
     <t>Apple iPhone 15 Pro 512Gb Natural Titanium (A3101)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro 512Gb Black Titanium (A3101)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro 512Gb Black Titanium (A3102)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro 512Gb White Titanium (A3102, EU)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro 512Gb White Titanium (A3102)</t>
-  </si>
-  <si>
     <t>Apple iPhone 15 Pro 512Gb White Titanium (A3101)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro 512Gb Blue Titanium (A3101)</t>
-  </si>
-  <si>
     <t>Apple iPhone 15 Pro 512Gb Blue Titanium (A3102)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Pro 512Gb Black Titanium (A2848, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro 512Gb White Titanium (A2848, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro 512Gb Blue Titanium (A2848, LL)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Z Fold 5 12/512Gb Dual 5G Cream (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Z Fold 5 12/1024Gb Dual 5G Black (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Z Fold 5 12/1024Gb Dual 5G Blue (EAC)</t>
+    <t>Apple iPhone 15 Pro 256Gb Black Titanium (A3101)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 256Gb White Titanium (A3101)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 256Gb Black Titanium (A3102)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 256Gb Blue Titanium (A3102, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 256Gb Blue Titanium (A3101)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 256Gb Natural Titanium (A3102, EU)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 256Gb White Titanium (A3102)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 256Gb Blue Titanium (A3102)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 256Gb Natural Titanium (A3101)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 256Gb Natural Titanium (A3102)</t>
+  </si>
+  <si>
+    <t>Google Pixel 9 Pro Fold 256Gb+16Gb 5G Obsidian (Japan)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 512Gb Pink (A3287)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Plus 512Gb Black (A3289)</t>
   </si>
   <si>
     <t>Samsung Galaxy Z Fold 5 12/512Gb Dual 5G Blue (EAC)</t>
   </si>
   <si>
-    <t>Samsung Galaxy Z Fold 5 12/256Gb Dual 5G Blue (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Z Fold 5 SM-F946 256Gb+12Gb Dual 5G Cream (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra 12/1024Gb фиолетовый (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra 12/1024Gb серый (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra 12/1024Gb желтый (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra 12/1024Gb черный (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra SM-S928 1024Gb+12Gb Dual 5G Black (Global)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra SM-S928 1024Gb+12Gb Dual 5G Blue (Global)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra SM-S928 1024Gb+12Gb Dual 5G Green (Global)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra SM-S928 1024Gb+12Gb Dual 5G Lavender (Global)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra SM-S928 1024Gb+12Gb Dual 5G Orange (Global)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra SM-S928 1024Gb+12Gb Dual 5G Yellow (Global)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra SM-S9280 1024Gb+12Gb Dual 5G Grey</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra 12/512Gb желтый (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra 12/512Gb серый (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra 12/512Gb фиолетовый (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra 12/512Gb черный (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra SM-S928 512Gb+12Gb Dual 5G Grey (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra SM-S928 512Gb+12Gb Dual 5G Lavender (EAC)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra SM-S928 512Gb+12Gb Dual 5G Black (EAC)</t>
-  </si>
-  <si>
-    <t>Google Pixel Fold 256Gb+12Gb 5G Obsidian (Japan)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Pro Max 1Tb Sierra Blue (A2641, JP)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro 1Tb Space Black (A2890)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro 1Tb Gold (A2890)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro 512Gb Gold (A2889)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro 1Tb Gold (A2892, Dual)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro 1Tb Gold (A2650, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro 1Tb Silver (A2650, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro 1Tb Space Black (A2650, LL)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro 256Gb Space Black (A2890)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Plus 256Gb Black (A3096, Dual)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Plus 512Gb Black (A3093)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Plus 512Gb Blue (A3093)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Plus 512Gb Green (A3093)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S22 Ultra SM-S908B/DS 256Gb+12Gb 5G Black (РСТ)</t>
-  </si>
-  <si>
-    <t>Huawei Mate X3 (51097LPX) 512Gb+12Gb Black (РСТ)</t>
-  </si>
-  <si>
     <t>Изображение</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-128gb-space-black-a2651-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-1tb-silver-a2894-eu-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-1tb-silver-a2894-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-1tb-silver-a2896-dual-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-1tb-gold-a2896-dual-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-1tb-purple-a2896-dual-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-1tb-space-black-a2896-dual-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-512gb-purple-a2894-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-1tb-gold-a2894-eu-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-1tb-purple-a2651-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-512gb-gold-a2894-eu-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-512gb-gold-a2896-dual-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-1tb-space-black-a2651-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-1tb-gold-a2651-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-256gb-purple-a2893-jp-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-256gb-space-black-a2894-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-512gb-gold-a2651-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-512gb-space-black-a2651-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-256gb-space-black-a2893-jp-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-256gb-gold-a2896-dual-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-max-256gb-gold-a2894-eu-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-blue-titanium-a3108-dual-1.jpg</t>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-1024gb-black-titanium-a3084-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-1024gb-white-titanium-a3295-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-512gb-black-titanium-a3295-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-512gb-natural-titanium-a3295-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-512gb-natural-titanium-a3084-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-512gb-desert-titanium-a3084-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-256gb-desert-titanium-a3296-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-256gb-natural-titanium-a3296-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-256gb-black-titanium-a3295-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-256gb-white-titanium-a3295-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-256gb-black-titanium-a3084-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-256gb-desert-titanium-a3084-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-256gb-desert-titanium-a3295-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-256gb-natural-titanium-a3084-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-max-256gb-white-titanium-a3084-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-6-1024gb-12gb-5g-grey-sm-f956bzsncau-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-6-512gb-12gb-5g-blue-sm-f956bdbccau-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-6-512gb-12gb-5g-grey-sm-f956bzsccau-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-6-256gb-12gb-5g-blue-sm-f956bdbbcau-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-6-256gb-12gb-5g-grey-sm-f956bzsbcau-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-6-256gb-12gb-5g-pink-sm-f956blibcau-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-1024gb-desert-titanium-a3293-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-1024gb-white-titanium-a3293-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-1024gb-desert-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-1024gb-natural-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-1024gb-black-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-1024gb-white-titanium-a3293-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-1024gb-white-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-512gb-black-titanium-a3293-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-512gb-desert-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-512gb-black-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-512gb-natural-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-512gb-black-titanium-a3083-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-512gb-desert-titanium-a3083-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-512gb-white-titanium-a3083-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-512gb-white-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-256gb-white-titanium-a3293-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-256gb-black-titanium-a3083-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-256gb-natural-titanium-a3083-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-256gb-white-titanium-a3083-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-256gb-white-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-black-titanium-a3293-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-natural-titanium-a3293-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-black-titanium-a3083-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-black-titanium-a3294-dual-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-desert-titanium-a3083-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-desert-titanium-a3293-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-natural-titanium-a3083-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-natural-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-white-titanium-a3083-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-natural-titanium-a3294-dual-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-white-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-white-titanium-a3294-dual-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-pro-128gb-desert-titanium-a3292-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-natural-titanium-a3106-1.jpg</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-natural-titanium-a3106-eu-1.jpg</t>
   </si>
   <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-blue-titanium-a2849-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-natural-titanium-a2849-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-white-titanium-a2849-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-black-titanium-a3106-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-blue-titanium-a3106-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-black-titanium-a3106-1.jpg</t>
+  </si>
+  <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-white-titanium-a3106-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-white-titanium-a3105-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-blue-titanium-a3108-dual-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-natural-titanium-a3105-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-natural-titanium-a3106-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-black-titanium-a3105-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-black-titanium-a3106-eu-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-blue-titanium-a3105-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-blue-titanium-a3106-eu-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-blue-titanium-a2849-ll-1.jpg</t>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-white-titanium-a3106-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-white-titanium-a3106-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-black-titanium-a2849-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-natural-titanium-a3106-eu-1.jpg</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-white-titanium-a3105-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-white-titanium-a3106-eu-1.jpg</t>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-blue-titanium-a3106-eu-1.jpg</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-white-titanium-a3106-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-1tb-black-titanium-a2849-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-natural-titanium-a3105-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-black-titanium-a3106-eu-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-black-titanium-a3105-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-black-titanium-a3106-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-blue-titanium-a3105-1.jpg</t>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-black-titanium-a2849-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-blue-titanium-a2849-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-natural-titanium-a2849-ll-1.jpg</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-white-titanium-a2849-ll-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-black-titanium-a2849-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-512gb-blue-titanium-a2849-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-natural-titanium-a3106-eu-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-black-titanium-a3106-eu-1.jpg</t>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-white-titanium-a3106-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-black-titanium-a3105-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-white-titanium-a3106-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-natural-titanium-a3105-1.jpg</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-natural-titanium-a3106-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-white-titanium-a3106-eu-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-black-titanium-a3105-1.jpg</t>
-  </si>
-  <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-black-titanium-a3106-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-natural-titanium-a3105-1.jpg</t>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-blue-titanium-a3106-1.jpg</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-white-titanium-a3105-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-white-titanium-a3106-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-blue-titanium-a3106-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-blue-titanium-a3106-eu-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-blue-titanium-a3105-1.jpg</t>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-black-titanium-a2849-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-blue-titanium-a2849-ll-1.jpg</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-natural-titanium-a2849-ll-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-black-titanium-a2849-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-blue-titanium-a2849-ll-1.jpg</t>
-  </si>
-  <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-max-256gb-white-titanium-a2849-ll-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-black-titanium-a3101-1.jpg</t>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-white-titanium-a3101-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-black-titanium-a2848-ll-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-blue-titanium-a2848-ll-1.jpg</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-black-titanium-a3102-1.jpg</t>
@@ -580,358 +661,358 @@
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-blue-titanium-a3102-1.jpg</t>
   </si>
   <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-blue-titanium-a3102-eu-1.jpg</t>
+  </si>
+  <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-natural-titanium-a3101-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-white-titanium-a2848-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-black-titanium-a2848-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-blue-titanium-a2848-ll-1.jpg</t>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-natural-titanium-a3102-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-white-titanium-a3102-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-1tb-white-titanium-a3102-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-black-titanium-a3101-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-natural-titanium-a3102-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-white-titanium-a3102-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-blue-titanium-a3102-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-blue-titanium-a3101-1.jpg</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-natural-titanium-a3101-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-black-titanium-a3101-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-black-titanium-a3102-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-white-titanium-a3102-eu-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-white-titanium-a3102-1.jpg</t>
-  </si>
-  <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-white-titanium-a3101-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-blue-titanium-a3101-1.jpg</t>
-  </si>
-  <si>
     <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-blue-titanium-a3102-1.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-black-titanium-a2848-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-white-titanium-a2848-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-512gb-blue-titanium-a2848-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-5-12-512gb-dual-5g-cream-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-5-12-1024gb-dual-5g-black-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-5-12-1024gb-dual-5g-blue-eac-5.jpg</t>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-256gb-black-titanium-a3101-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-256gb-white-titanium-a3101-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-256gb-black-titanium-a3102-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-256gb-blue-titanium-a3102-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-256gb-blue-titanium-a3101-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-256gb-natural-titanium-a3102-eu-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-256gb-white-titanium-a3102-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-256gb-blue-titanium-a3102-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-256gb-natural-titanium-a3101-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-pro-256gb-natural-titanium-a3102-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/google/google-pixel-9-pro-fold-256gb-16gb-5g-obsidian-japan-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-512gb-pink-a3287-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-16-plus-512gb-black-a3286-1.jpg</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-5-12-512gb-dual-5g-blue-eac-5.jpg</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-5-12-256gb-dual-5g-blue-eac-5.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-z-fold-5-sm-f946-256gb-12gb-dual-5g-cream-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-12-1024gb-fioletoviy-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-12-1024gb-seriy-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-12-1024gb-zheltiy-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-12-1024gb-cherniy-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-sm-s928-1024gb-12gb-dual-5g-black-global-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-sm-s928-1024gb-12gb-dual-5g-blue-global-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-sm-s928-1024gb-12gb-dual-5g-green-global-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-sm-s928-1024gb-12gb-dual-5g-lavender-global-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-sm-s928-1024gb-12gb-dual-5g-orange-global-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-sm-s928-1024gb-12gb-dual-5g-yellow-global-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-sm-s9280-1024gb-12gb-dual-5g-grey-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-12-512gb-zheltiy-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-12-512gb-seriy-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-12-512gb-fioletoviy-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-12-512gb-cherniy-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-sm-s928-512gb-12gb-dual-5g-grey-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-sm-s928-512gb-12gb-dual-5g-lavender-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s24-ultra-sm-s928-512gb-12gb-dual-5g-black-eac-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/google/google-pixel-fold-256gb-12gb-5g-obsidian-japan-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-13-pro-max-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-1tb-space-black-a2890-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-1tb-gold-a2890-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-512gb-gold-a2889-jp-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-1tb-gold-a2892-dual-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-1tb-gold-a2650-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-1tb-silver-a2650-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-1tb-space-black-a2650-ll-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-14-pro-256gb-space-black-a2890-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-plus-256gb-black-a3096-dual-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-plus-512gb-black-a3093-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-plus-512gb-blue-a3093-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/apple/apple-iphone-15-plus-512gb-green-a3093-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/samsung/samsung-galaxy-s22-ultra-sm-s908b-ds-256gb-12gb-5g-black-rst-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/photos/little/huawei/huawei-mate-x3-51097lpx-512gb-12gb-black-rst-1.jpg</t>
-  </si>
-  <si>
     <t>Ссылка</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_128gb_space_black_a2651_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_1tb_silver_a2894_eu</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_1tb_silver_a2894</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_1tb_silver_a2896_dual</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_1tb_gold_a2896_dual</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_1tb_purple_a2896_dual</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_1tb_space_black_a2896_dual</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_512gb_purple_a2894</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_1tb_gold_a2894_eu</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_1tb_purple_a2651_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_512gb_gold_a2894_eu</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_512gb_gold_a2896_dual</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_1tb_space_black_a2651_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_1tb_gold_a2651_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_256gb_purple_a2893_jp</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_256gb_space_black_a2894</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_512gb_gold_a2651_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_512gb_space_black_a2651_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_256gb_space_black_a2893_jp</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_256gb_gold_a2896_dual</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_max_256gb_gold_a2894_eu</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_blue_titanium_a3108_dual</t>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_1024gb_black_titanium_a3084_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_1024gb_white_titanium_a3295</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_512gb_black_titanium_a3295</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_512gb_natural_titanium_a3295</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_512gb_natural_titanium_a3084_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_512gb_desert_titanium_a3084_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_256gb_desert_titanium_a3296_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_256gb_natural_titanium_a3296_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_256gb_black_titanium_a3295</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_256gb_white_titanium_a3295</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_256gb_black_titanium_a3084_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_256gb_desert_titanium_a3084_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_256gb_desert_titanium_a3295</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_256gb_natural_titanium_a3084_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_max_256gb_white_titanium_a3084_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_6_1024gb_12gb_5g_grey_sm-f956bzsncau</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_6_512gb_12gb_5g_blue_sm-f956bdbccau</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_6_512gb_12gb_5g_grey_sm-f956bzsccau</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_6_256gb_12gb_5g_blue_sm-f956bdbbcau</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_6_256gb_12gb_5g_grey_sm-f956bzsbcau</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_6_256gb_12gb_5g_pink_sm-f956blibcau</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_1024gb_desert_titanium_a3293</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_1024gb_white_titanium_a3293_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_1024gb_desert_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_1024gb_natural_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_1024gb_black_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_1024gb_white_titanium_a3293</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_1024gb_white_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_512gb_black_titanium_a3293</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_512gb_desert_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_512gb_black_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_512gb_natural_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_512gb_black_titanium_a3083_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_512gb_desert_titanium_a3083_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_512gb_white_titanium_a3083_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_512gb_white_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_256gb_white_titanium_a3293</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_256gb_black_titanium_a3083_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_256gb_natural_titanium_a3083_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_256gb_white_titanium_a3083_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_256gb_white_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_black_titanium_a3293_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_natural_titanium_a3293_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_black_titanium_a3083_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_black_titanium_a3294_dual</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_desert_titanium_a3083_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_desert_titanium_a3293_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_natural_titanium_a3083_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_natural_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_white_titanium_a3083_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_natural_titanium_a3294_dual</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_white_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_white_titanium_a3294_dual</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_pro_128gb_desert_titanium_a3292</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_natural_titanium_a3106</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_natural_titanium_a3106_eu</t>
   </si>
   <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_blue_titanium_a2849_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_natural_titanium_a2849_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_white_titanium_a2849_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_black_titanium_a3106_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_blue_titanium_a3106_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_black_titanium_a3106</t>
+  </si>
+  <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_white_titanium_a3106</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_white_titanium_a3105</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_blue_titanium_a3108_dual</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_natural_titanium_a3105</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_natural_titanium_a3106</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_black_titanium_a3105</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_black_titanium_a3106_eu</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_blue_titanium_a3105</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_blue_titanium_a3106_eu</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_blue_titanium_a2849_ll</t>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_white_titanium_a3106_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_white_titanium_a3106_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_black_titanium_a2849_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_natural_titanium_a3106_eu</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_white_titanium_a3105</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_white_titanium_a3106_eu</t>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_blue_titanium_a3106_eu</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_white_titanium_a3106</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_1tb_black_titanium_a2849_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_natural_titanium_a3105</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_black_titanium_a3106_eu</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_black_titanium_a3105</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_black_titanium_a3106</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_blue_titanium_a3105</t>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_black_titanium_a2849_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_blue_titanium_a2849_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_natural_titanium_a2849_ll</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_white_titanium_a2849_ll</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_black_titanium_a2849_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_blue_titanium_a2849_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_natural_titanium_a3106_eu</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_black_titanium_a3106_eu</t>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_512gb_black_titanium_a2849_ll_utsenka</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_white_titanium_a3106_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_black_titanium_a3105</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_white_titanium_a3106</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_natural_titanium_a3105</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_natural_titanium_a3106</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_white_titanium_a3106_eu</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_black_titanium_a3105</t>
-  </si>
-  <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_black_titanium_a3106</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_natural_titanium_a3105</t>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_blue_titanium_a3106</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_white_titanium_a3105</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_white_titanium_a3106</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_blue_titanium_a3106</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_blue_titanium_a3106_eu</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_blue_titanium_a3105</t>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_black_titanium_a2849_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_blue_titanium_a2849_ll</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_natural_titanium_a2849_ll</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_black_titanium_a2849_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_blue_titanium_a2849_ll</t>
-  </si>
-  <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_max_256gb_white_titanium_a2849_ll</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_black_titanium_a3101</t>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_white_titanium_a3101</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_black_titanium_a2848_ll</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_blue_titanium_a2848_ll</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_black_titanium_a3102</t>
@@ -943,178 +1024,157 @@
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_blue_titanium_a3102</t>
   </si>
   <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_blue_titanium_a3102_eu</t>
+  </si>
+  <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_natural_titanium_a3101</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_white_titanium_a2848_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_black_titanium_a2848_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_blue_titanium_a2848_ll</t>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_natural_titanium_a3102_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_white_titanium_a3102</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_1tb_white_titanium_a3102_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_black_titanium_a3101</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_natural_titanium_a3102_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_white_titanium_a3102_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_blue_titanium_a3102_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_blue_titanium_a3101</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_natural_titanium_a3101</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_black_titanium_a3101</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_black_titanium_a3102</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_white_titanium_a3102_eu</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_white_titanium_a3102</t>
-  </si>
-  <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_white_titanium_a3101</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_blue_titanium_a3101</t>
-  </si>
-  <si>
     <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_blue_titanium_a3102</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_black_titanium_a2848_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_white_titanium_a2848_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_512gb_blue_titanium_a2848_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_5_12_512gb_dual_5g_cream_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_5_12_1024gb_dual_5g_black_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_5_12_1024gb_dual_5g_blue_eac</t>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_256gb_black_titanium_a3101</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_256gb_white_titanium_a3101</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_256gb_black_titanium_a3102</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_256gb_blue_titanium_a3102_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_256gb_blue_titanium_a3101</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_256gb_natural_titanium_a3102_eu</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_256gb_white_titanium_a3102</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_256gb_blue_titanium_a3102</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_256gb_natural_titanium_a3101</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_15_pro_256gb_natural_titanium_a3102</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/google_pixel_9_pro_fold_256gb_16gb_5g_obsidian_japan</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_512gb_pink_a3287</t>
+  </si>
+  <si>
+    <t>https://www.cifrus.ru/description/1/apple_iphone_16_plus_512gb_black_a3286</t>
   </si>
   <si>
     <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_5_12_512gb_dual_5g_blue_eac</t>
   </si>
   <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_5_12_256gb_dual_5g_blue_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_z_fold_5_sm-f946_256gb_12gb_dual_5g_cream_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_12_1024gb_fioletoviy_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_12_1024gb_seriy_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_12_1024gb_zheltiy_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_12_1024gb_cherniy_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_sm-s928_1024gb_12gb_dual_5g_black_global</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_sm-s928_1024gb_12gb_dual_5g_blue_global</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_sm-s928_1024gb_12gb_dual_5g_green_global</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_sm-s928_1024gb_12gb_dual_5g_lavender_global</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_sm-s928_1024gb_12gb_dual_5g_orange_global</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_sm-s928_1024gb_12gb_dual_5g_yellow_global</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_sm-s9280_1024gb_12gb_dual_5g_grey</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_12_512gb_zheltiy_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_12_512gb_seriy_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_12_512gb_fioletoviy_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_12_512gb_cherniy_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_sm-s928_512gb_12gb_dual_5g_grey_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_sm-s928_512gb_12gb_dual_5g_lavender_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s24_ultra_sm-s928_512gb_12gb_dual_5g_black_eac</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/google_pixel_fold_256gb_12gb_5g_obsidian_japan</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_13_pro_max_1tb_sierra_blue_a2641_jp</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_1tb_space_black_a2890</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_1tb_gold_a2890</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_512gb_gold_a2889_jp</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_1tb_gold_a2892_dual</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_1tb_gold_a2650_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_1tb_silver_a2650_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_1tb_space_black_a2650_ll</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_14_pro_256gb_space_black_a2890</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_plus_256gb_black_a3096_dual</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_plus_512gb_black_a3093</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_plus_512gb_blue_a3093</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/apple_iphone_15_plus_512gb_green_a3093</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/samsung_galaxy_s22_ultra_sm-s908b_ds_256gb_12gb_5g_black_rst</t>
-  </si>
-  <si>
-    <t>https://www.cifrus.ru/description/1/huawei_mate_x3_51097lpx_512gb_12gb_black_rst</t>
-  </si>
-  <si>
     <t>Стоимость</t>
   </si>
   <si>
-    <t>376490 руб.</t>
-  </si>
-  <si>
-    <t>136490 руб.</t>
+    <t>186490 руб.</t>
+  </si>
+  <si>
+    <t>184890 руб.</t>
+  </si>
+  <si>
+    <t>181990 руб.</t>
+  </si>
+  <si>
+    <t>170490 руб.</t>
+  </si>
+  <si>
+    <t>168490 руб.</t>
+  </si>
+  <si>
+    <t>164490 руб.</t>
+  </si>
+  <si>
+    <t>151990 руб.</t>
+  </si>
+  <si>
+    <t>146990 руб.</t>
+  </si>
+  <si>
+    <t>145990 руб.</t>
+  </si>
+  <si>
+    <t>177990 руб.</t>
+  </si>
+  <si>
+    <t>154880 руб.</t>
+  </si>
+  <si>
+    <t>147470 руб.</t>
+  </si>
+  <si>
+    <t>174990 руб.</t>
+  </si>
+  <si>
+    <t>174490 руб.</t>
+  </si>
+  <si>
+    <t>173990 руб.</t>
+  </si>
+  <si>
+    <t>172990 руб.</t>
+  </si>
+  <si>
+    <t>170990 руб.</t>
+  </si>
+  <si>
+    <t>160990 руб.</t>
+  </si>
+  <si>
+    <t>157490 руб.</t>
+  </si>
+  <si>
+    <t>155490 руб.</t>
+  </si>
+  <si>
+    <t>154490 руб.</t>
+  </si>
+  <si>
+    <t>152490 руб.</t>
+  </si>
+  <si>
+    <t>135990 руб.</t>
   </si>
   <si>
     <t>135490 руб.</t>
@@ -1123,199 +1183,112 @@
     <t>133990 руб.</t>
   </si>
   <si>
+    <t>126490 руб.</t>
+  </si>
+  <si>
+    <t>125490 руб.</t>
+  </si>
+  <si>
+    <t>124990 руб.</t>
+  </si>
+  <si>
+    <t>124490 руб.</t>
+  </si>
+  <si>
+    <t>123890 руб.</t>
+  </si>
+  <si>
+    <t>157990 руб.</t>
+  </si>
+  <si>
+    <t>153990 руб.</t>
+  </si>
+  <si>
+    <t>152990 руб.</t>
+  </si>
+  <si>
+    <t>147990 руб.</t>
+  </si>
+  <si>
+    <t>147490 руб.</t>
+  </si>
+  <si>
+    <t>146390 руб.</t>
+  </si>
+  <si>
+    <t>144990 руб.</t>
+  </si>
+  <si>
+    <t>144490 руб.</t>
+  </si>
+  <si>
+    <t>143490 руб.</t>
+  </si>
+  <si>
+    <t>137266 руб.</t>
+  </si>
+  <si>
     <t>132990 руб.</t>
   </si>
   <si>
+    <t>132690 руб.</t>
+  </si>
+  <si>
+    <t>131990 руб.</t>
+  </si>
+  <si>
+    <t>129990 руб.</t>
+  </si>
+  <si>
+    <t>129490 руб.</t>
+  </si>
+  <si>
+    <t>143990 руб.</t>
+  </si>
+  <si>
+    <t>142990 руб.</t>
+  </si>
+  <si>
+    <t>141990 руб.</t>
+  </si>
+  <si>
+    <t>141490 руб.</t>
+  </si>
+  <si>
+    <t>139390 руб.</t>
+  </si>
+  <si>
+    <t>138890 руб.</t>
+  </si>
+  <si>
+    <t>138490 руб.</t>
+  </si>
+  <si>
+    <t>136990 руб.</t>
+  </si>
+  <si>
+    <t>134690 руб.</t>
+  </si>
+  <si>
+    <t>127990 руб.</t>
+  </si>
+  <si>
+    <t>127490 руб.</t>
+  </si>
+  <si>
+    <t>126990 руб.</t>
+  </si>
+  <si>
+    <t>125990 руб.</t>
+  </si>
+  <si>
+    <t>137490 руб.</t>
+  </si>
+  <si>
     <t>131490 руб.</t>
   </si>
   <si>
-    <t>126490 руб.</t>
-  </si>
-  <si>
-    <t>125690 руб.</t>
-  </si>
-  <si>
-    <t>124490 руб.</t>
-  </si>
-  <si>
-    <t>122490 руб.</t>
-  </si>
-  <si>
-    <t>118490 руб.</t>
-  </si>
-  <si>
-    <t>117490 руб.</t>
-  </si>
-  <si>
-    <t>116790 руб.</t>
-  </si>
-  <si>
-    <t>115790 руб.</t>
-  </si>
-  <si>
-    <t>115190 руб.</t>
-  </si>
-  <si>
-    <t>114790 руб.</t>
-  </si>
-  <si>
-    <t>180990 руб.</t>
-  </si>
-  <si>
-    <t>162990 руб.</t>
-  </si>
-  <si>
-    <t>161490 руб.</t>
-  </si>
-  <si>
-    <t>160990 руб.</t>
-  </si>
-  <si>
-    <t>160490 руб.</t>
-  </si>
-  <si>
-    <t>159490 руб.</t>
-  </si>
-  <si>
-    <t>157490 руб.</t>
-  </si>
-  <si>
-    <t>146990 руб.</t>
-  </si>
-  <si>
-    <t>145990 руб.</t>
-  </si>
-  <si>
-    <t>145490 руб.</t>
-  </si>
-  <si>
-    <t>144990 руб.</t>
-  </si>
-  <si>
-    <t>139490 руб.</t>
-  </si>
-  <si>
-    <t>138990 руб.</t>
-  </si>
-  <si>
-    <t>137990 руб.</t>
-  </si>
-  <si>
-    <t>133490 руб.</t>
-  </si>
-  <si>
-    <t>121990 руб.</t>
-  </si>
-  <si>
-    <t>121890 руб.</t>
-  </si>
-  <si>
-    <t>121790 руб.</t>
-  </si>
-  <si>
-    <t>121490 руб.</t>
-  </si>
-  <si>
-    <t>121390 руб.</t>
-  </si>
-  <si>
-    <t>120690 руб.</t>
-  </si>
-  <si>
-    <t>120490 руб.</t>
-  </si>
-  <si>
-    <t>119990 руб.</t>
-  </si>
-  <si>
-    <t>118290 руб.</t>
-  </si>
-  <si>
-    <t>148790 руб.</t>
-  </si>
-  <si>
-    <t>147990 руб.</t>
-  </si>
-  <si>
-    <t>138490 руб.</t>
-  </si>
-  <si>
-    <t>136990 руб.</t>
-  </si>
-  <si>
-    <t>131990 руб.</t>
-  </si>
-  <si>
-    <t>131890 руб.</t>
-  </si>
-  <si>
-    <t>130990 руб.</t>
-  </si>
-  <si>
-    <t>123990 руб.</t>
-  </si>
-  <si>
-    <t>147020 руб.</t>
-  </si>
-  <si>
-    <t>145440 руб.</t>
-  </si>
-  <si>
-    <t>138200 руб.</t>
-  </si>
-  <si>
-    <t>129690 руб.</t>
-  </si>
-  <si>
-    <t>129170 руб.</t>
-  </si>
-  <si>
-    <t>146830 руб.</t>
-  </si>
-  <si>
-    <t>146090 руб.</t>
-  </si>
-  <si>
-    <t>140890 руб.</t>
-  </si>
-  <si>
-    <t>127990 руб.</t>
-  </si>
-  <si>
-    <t>120540 руб.</t>
-  </si>
-  <si>
-    <t>116460 руб.</t>
-  </si>
-  <si>
-    <t>115520 руб.</t>
-  </si>
-  <si>
-    <t>128990 руб.</t>
-  </si>
-  <si>
-    <t>120990 руб.</t>
-  </si>
-  <si>
-    <t>116990 руб.</t>
-  </si>
-  <si>
-    <t>116490 руб.</t>
-  </si>
-  <si>
-    <t>115990 руб.</t>
-  </si>
-  <si>
-    <t>114490 руб.</t>
-  </si>
-  <si>
-    <t>119490 руб.</t>
-  </si>
-  <si>
-    <t>114990 руб.</t>
-  </si>
-  <si>
-    <t>116390 руб.</t>
+    <t>126960 руб.</t>
   </si>
   <si>
     <t>Оценка</t>
@@ -1327,190 +1300,274 @@
     <t>Артикул на сайте</t>
   </si>
   <si>
-    <t>32438</t>
-  </si>
-  <si>
-    <t>32531</t>
-  </si>
-  <si>
-    <t>32530</t>
-  </si>
-  <si>
-    <t>32533</t>
-  </si>
-  <si>
-    <t>32521</t>
-  </si>
-  <si>
-    <t>32527</t>
-  </si>
-  <si>
-    <t>32515</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>32519</t>
-  </si>
-  <si>
-    <t>32522</t>
-  </si>
-  <si>
-    <t>32495</t>
-  </si>
-  <si>
-    <t>32497</t>
-  </si>
-  <si>
-    <t>32510</t>
-  </si>
-  <si>
-    <t>32516</t>
-  </si>
-  <si>
-    <t>32475</t>
-  </si>
-  <si>
-    <t>32464</t>
-  </si>
-  <si>
-    <t>32492</t>
-  </si>
-  <si>
-    <t>32486</t>
-  </si>
-  <si>
-    <t>32463</t>
-  </si>
-  <si>
-    <t>32473</t>
-  </si>
-  <si>
-    <t>32471</t>
-  </si>
-  <si>
-    <t>44484</t>
+    <t>53567</t>
+  </si>
+  <si>
+    <t>53583</t>
+  </si>
+  <si>
+    <t>53548</t>
+  </si>
+  <si>
+    <t>53558</t>
+  </si>
+  <si>
+    <t>53557</t>
+  </si>
+  <si>
+    <t>53552</t>
+  </si>
+  <si>
+    <t>53535</t>
+  </si>
+  <si>
+    <t>53540</t>
+  </si>
+  <si>
+    <t>53528</t>
+  </si>
+  <si>
+    <t>53543</t>
+  </si>
+  <si>
+    <t>53527</t>
+  </si>
+  <si>
+    <t>53532</t>
+  </si>
+  <si>
+    <t>53533</t>
+  </si>
+  <si>
+    <t>53537</t>
+  </si>
+  <si>
+    <t>53542</t>
+  </si>
+  <si>
+    <t>51984</t>
+  </si>
+  <si>
+    <t>51980</t>
+  </si>
+  <si>
+    <t>51981</t>
+  </si>
+  <si>
+    <t>51977</t>
+  </si>
+  <si>
+    <t>51978</t>
+  </si>
+  <si>
+    <t>51979</t>
+  </si>
+  <si>
+    <t>53514</t>
+  </si>
+  <si>
+    <t>53525</t>
+  </si>
+  <si>
+    <t>53513</t>
+  </si>
+  <si>
+    <t>53518</t>
+  </si>
+  <si>
+    <t>53508</t>
+  </si>
+  <si>
+    <t>53524</t>
+  </si>
+  <si>
+    <t>53523</t>
+  </si>
+  <si>
+    <t>53489</t>
+  </si>
+  <si>
+    <t>53493</t>
+  </si>
+  <si>
+    <t>53488</t>
+  </si>
+  <si>
+    <t>53498</t>
+  </si>
+  <si>
+    <t>53487</t>
+  </si>
+  <si>
+    <t>53492</t>
+  </si>
+  <si>
+    <t>53502</t>
+  </si>
+  <si>
+    <t>53503</t>
+  </si>
+  <si>
+    <t>53484</t>
+  </si>
+  <si>
+    <t>53467</t>
+  </si>
+  <si>
+    <t>53477</t>
+  </si>
+  <si>
+    <t>53482</t>
+  </si>
+  <si>
+    <t>53483</t>
+  </si>
+  <si>
+    <t>53450</t>
+  </si>
+  <si>
+    <t>53460</t>
+  </si>
+  <si>
+    <t>53447</t>
+  </si>
+  <si>
+    <t>53451</t>
+  </si>
+  <si>
+    <t>53452</t>
+  </si>
+  <si>
+    <t>53455</t>
+  </si>
+  <si>
+    <t>53457</t>
+  </si>
+  <si>
+    <t>53458</t>
+  </si>
+  <si>
+    <t>53462</t>
+  </si>
+  <si>
+    <t>53461</t>
+  </si>
+  <si>
+    <t>53463</t>
+  </si>
+  <si>
+    <t>53466</t>
+  </si>
+  <si>
+    <t>53453</t>
+  </si>
+  <si>
+    <t>44487</t>
   </si>
   <si>
     <t>44488</t>
   </si>
   <si>
+    <t>44480</t>
+  </si>
+  <si>
+    <t>44485</t>
+  </si>
+  <si>
+    <t>44490</t>
+  </si>
+  <si>
+    <t>44478</t>
+  </si>
+  <si>
+    <t>44483</t>
+  </si>
+  <si>
+    <t>44477</t>
+  </si>
+  <si>
     <t>44492</t>
   </si>
   <si>
-    <t>44491</t>
-  </si>
-  <si>
-    <t>44464</t>
-  </si>
-  <si>
-    <t>44486</t>
-  </si>
-  <si>
-    <t>44487</t>
-  </si>
-  <si>
-    <t>44476</t>
-  </si>
-  <si>
-    <t>44478</t>
-  </si>
-  <si>
-    <t>44481</t>
-  </si>
-  <si>
-    <t>44483</t>
-  </si>
-  <si>
-    <t>44480</t>
+    <t>44493</t>
+  </si>
+  <si>
+    <t>44473</t>
+  </si>
+  <si>
+    <t>44475</t>
+  </si>
+  <si>
+    <t>44468</t>
   </si>
   <si>
     <t>44471</t>
   </si>
   <si>
-    <t>44473</t>
+    <t>44463</t>
   </si>
   <si>
     <t>44472</t>
   </si>
   <si>
-    <t>44475</t>
-  </si>
-  <si>
-    <t>44466</t>
-  </si>
-  <si>
-    <t>44458</t>
-  </si>
-  <si>
-    <t>44456</t>
-  </si>
-  <si>
-    <t>44457</t>
-  </si>
-  <si>
-    <t>44461</t>
+    <t>44455</t>
+  </si>
+  <si>
+    <t>44460</t>
+  </si>
+  <si>
+    <t>44465</t>
   </si>
   <si>
     <t>44470</t>
   </si>
   <si>
-    <t>44455</t>
-  </si>
-  <si>
-    <t>44460</t>
-  </si>
-  <si>
-    <t>44448</t>
-  </si>
-  <si>
-    <t>44438</t>
+    <t>55992</t>
+  </si>
+  <si>
+    <t>44453</t>
+  </si>
+  <si>
+    <t>44436</t>
+  </si>
+  <si>
+    <t>44452</t>
+  </si>
+  <si>
+    <t>44446</t>
   </si>
   <si>
     <t>44447</t>
   </si>
   <si>
-    <t>44453</t>
-  </si>
-  <si>
-    <t>44436</t>
-  </si>
-  <si>
     <t>44437</t>
   </si>
   <si>
-    <t>44446</t>
+    <t>44442</t>
   </si>
   <si>
     <t>44451</t>
   </si>
   <si>
-    <t>44452</t>
-  </si>
-  <si>
-    <t>44442</t>
-  </si>
-  <si>
-    <t>44443</t>
-  </si>
-  <si>
-    <t>44441</t>
+    <t>44435</t>
+  </si>
+  <si>
+    <t>44440</t>
   </si>
   <si>
     <t>44445</t>
   </si>
   <si>
-    <t>44435</t>
-  </si>
-  <si>
-    <t>44440</t>
-  </si>
-  <si>
     <t>44450</t>
   </si>
   <si>
-    <t>44416</t>
+    <t>44431</t>
+  </si>
+  <si>
+    <t>44415</t>
+  </si>
+  <si>
+    <t>44420</t>
   </si>
   <si>
     <t>44417</t>
@@ -1522,169 +1579,85 @@
     <t>44422</t>
   </si>
   <si>
+    <t>44423</t>
+  </si>
+  <si>
     <t>44426</t>
   </si>
   <si>
-    <t>44430</t>
-  </si>
-  <si>
-    <t>44415</t>
-  </si>
-  <si>
-    <t>44420</t>
+    <t>44428</t>
+  </si>
+  <si>
+    <t>44432</t>
+  </si>
+  <si>
+    <t>44433</t>
+  </si>
+  <si>
+    <t>44396</t>
+  </si>
+  <si>
+    <t>44408</t>
+  </si>
+  <si>
+    <t>44413</t>
+  </si>
+  <si>
+    <t>44403</t>
+  </si>
+  <si>
+    <t>44401</t>
   </si>
   <si>
     <t>44406</t>
   </si>
   <si>
-    <t>44396</t>
-  </si>
-  <si>
-    <t>44397</t>
-  </si>
-  <si>
-    <t>44413</t>
-  </si>
-  <si>
-    <t>44412</t>
-  </si>
-  <si>
     <t>44411</t>
   </si>
   <si>
-    <t>44401</t>
-  </si>
-  <si>
     <t>44402</t>
   </si>
   <si>
-    <t>44395</t>
-  </si>
-  <si>
-    <t>44410</t>
-  </si>
-  <si>
-    <t>44400</t>
-  </si>
-  <si>
-    <t>49611</t>
-  </si>
-  <si>
-    <t>49613</t>
-  </si>
-  <si>
-    <t>49614</t>
+    <t>44376</t>
+  </si>
+  <si>
+    <t>44391</t>
+  </si>
+  <si>
+    <t>44377</t>
+  </si>
+  <si>
+    <t>44383</t>
+  </si>
+  <si>
+    <t>44381</t>
+  </si>
+  <si>
+    <t>44388</t>
+  </si>
+  <si>
+    <t>44392</t>
+  </si>
+  <si>
+    <t>44382</t>
+  </si>
+  <si>
+    <t>44386</t>
+  </si>
+  <si>
+    <t>44387</t>
+  </si>
+  <si>
+    <t>52727</t>
+  </si>
+  <si>
+    <t>53354</t>
+  </si>
+  <si>
+    <t>53423</t>
   </si>
   <si>
     <t>49610</t>
-  </si>
-  <si>
-    <t>49606</t>
-  </si>
-  <si>
-    <t>43258</t>
-  </si>
-  <si>
-    <t>49594</t>
-  </si>
-  <si>
-    <t>49593</t>
-  </si>
-  <si>
-    <t>49596</t>
-  </si>
-  <si>
-    <t>49590</t>
-  </si>
-  <si>
-    <t>47651</t>
-  </si>
-  <si>
-    <t>47652</t>
-  </si>
-  <si>
-    <t>47653</t>
-  </si>
-  <si>
-    <t>47655</t>
-  </si>
-  <si>
-    <t>47656</t>
-  </si>
-  <si>
-    <t>47657</t>
-  </si>
-  <si>
-    <t>47675</t>
-  </si>
-  <si>
-    <t>49589</t>
-  </si>
-  <si>
-    <t>49586</t>
-  </si>
-  <si>
-    <t>49587</t>
-  </si>
-  <si>
-    <t>49583</t>
-  </si>
-  <si>
-    <t>47626</t>
-  </si>
-  <si>
-    <t>47627</t>
-  </si>
-  <si>
-    <t>47623</t>
-  </si>
-  <si>
-    <t>40750</t>
-  </si>
-  <si>
-    <t>28494</t>
-  </si>
-  <si>
-    <t>32416</t>
-  </si>
-  <si>
-    <t>32422</t>
-  </si>
-  <si>
-    <t>32397</t>
-  </si>
-  <si>
-    <t>32425</t>
-  </si>
-  <si>
-    <t>32420</t>
-  </si>
-  <si>
-    <t>32432</t>
-  </si>
-  <si>
-    <t>32414</t>
-  </si>
-  <si>
-    <t>32368</t>
-  </si>
-  <si>
-    <t>44309</t>
-  </si>
-  <si>
-    <t>44331</t>
-  </si>
-  <si>
-    <t>44336</t>
-  </si>
-  <si>
-    <t>44341</t>
-  </si>
-  <si>
-    <t>29564</t>
-  </si>
-  <si>
-    <t>44753</t>
   </si>
 </sst>
 </file>
@@ -2050,9 +2023,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="111" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -2069,16 +2042,16 @@
         <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2092,16 +2065,16 @@
         <v>123</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
+        <v>364</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2115,16 +2088,16 @@
         <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
+        <v>365</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2138,16 +2111,16 @@
         <v>125</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
+        <v>366</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2161,16 +2134,16 @@
         <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
+        <v>367</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2184,16 +2157,16 @@
         <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
+        <v>368</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2207,16 +2180,16 @@
         <v>128</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F7" s="2">
-        <v>5</v>
+      <c r="F7" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2230,16 +2203,16 @@
         <v>129</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
+        <v>370</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2253,16 +2226,16 @@
         <v>130</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
+        <v>370</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2276,16 +2249,16 @@
         <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
+        <v>371</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2299,16 +2272,16 @@
         <v>132</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F11" s="2">
-        <v>5</v>
+      <c r="F11" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2322,16 +2295,16 @@
         <v>133</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F12" s="2">
-        <v>5</v>
+        <v>372</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2345,16 +2318,16 @@
         <v>134</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F13" s="2">
-        <v>5</v>
+      <c r="F13" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2368,16 +2341,16 @@
         <v>135</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5</v>
+        <v>372</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2391,16 +2364,16 @@
         <v>136</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5</v>
+        <v>372</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2414,16 +2387,16 @@
         <v>137</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5</v>
+        <v>372</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2437,16 +2410,16 @@
         <v>138</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5</v>
+        <v>373</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2460,16 +2433,16 @@
         <v>139</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
+        <v>374</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2483,16 +2456,16 @@
         <v>140</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5</v>
+        <v>374</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2506,16 +2479,16 @@
         <v>141</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
+        <v>375</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2529,16 +2502,16 @@
         <v>142</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5</v>
+        <v>375</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2552,16 +2525,16 @@
         <v>143</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5</v>
+        <v>375</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2575,16 +2548,16 @@
         <v>144</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2598,16 +2571,16 @@
         <v>145</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2621,16 +2594,16 @@
         <v>146</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2644,16 +2617,16 @@
         <v>147</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2667,16 +2640,16 @@
         <v>148</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2690,16 +2663,16 @@
         <v>149</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2713,16 +2686,16 @@
         <v>150</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2736,16 +2709,16 @@
         <v>151</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2759,16 +2732,16 @@
         <v>152</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2782,16 +2755,16 @@
         <v>153</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2805,16 +2778,16 @@
         <v>154</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2828,16 +2801,16 @@
         <v>155</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2851,16 +2824,16 @@
         <v>156</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2874,16 +2847,16 @@
         <v>157</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2897,16 +2870,16 @@
         <v>158</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2920,16 +2893,16 @@
         <v>159</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2943,16 +2916,16 @@
         <v>160</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2966,16 +2939,16 @@
         <v>161</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2989,16 +2962,16 @@
         <v>162</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3012,16 +2985,16 @@
         <v>163</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3035,16 +3008,16 @@
         <v>164</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3058,16 +3031,16 @@
         <v>165</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3081,16 +3054,16 @@
         <v>166</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3104,16 +3077,16 @@
         <v>167</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3127,16 +3100,16 @@
         <v>168</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3150,16 +3123,16 @@
         <v>169</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3173,16 +3146,16 @@
         <v>170</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3196,16 +3169,16 @@
         <v>171</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3219,16 +3192,16 @@
         <v>172</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3242,16 +3215,16 @@
         <v>173</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3265,16 +3238,16 @@
         <v>174</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3288,16 +3261,16 @@
         <v>175</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3311,16 +3284,16 @@
         <v>176</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3334,16 +3307,16 @@
         <v>177</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3357,16 +3330,16 @@
         <v>178</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3380,16 +3353,16 @@
         <v>179</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3403,16 +3376,16 @@
         <v>180</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3426,16 +3399,16 @@
         <v>181</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3449,16 +3422,16 @@
         <v>182</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3472,16 +3445,16 @@
         <v>183</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3495,16 +3468,16 @@
         <v>184</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3518,16 +3491,16 @@
         <v>185</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3541,16 +3514,16 @@
         <v>186</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3564,16 +3537,16 @@
         <v>187</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3587,16 +3560,16 @@
         <v>188</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3610,16 +3583,16 @@
         <v>189</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3633,16 +3606,16 @@
         <v>190</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3656,16 +3629,16 @@
         <v>191</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3679,16 +3652,16 @@
         <v>192</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3702,16 +3675,16 @@
         <v>193</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3725,16 +3698,16 @@
         <v>194</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3748,16 +3721,16 @@
         <v>195</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3771,16 +3744,16 @@
         <v>196</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3791,19 +3764,19 @@
         <v>76</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3814,19 +3787,19 @@
         <v>77</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3837,19 +3810,19 @@
         <v>78</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3860,19 +3833,19 @@
         <v>79</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3883,19 +3856,19 @@
         <v>80</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3906,19 +3879,19 @@
         <v>81</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3929,19 +3902,19 @@
         <v>82</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3952,19 +3925,19 @@
         <v>83</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3975,19 +3948,19 @@
         <v>84</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3998,19 +3971,19 @@
         <v>85</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4021,19 +3994,19 @@
         <v>86</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4044,19 +4017,19 @@
         <v>87</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4067,19 +4040,19 @@
         <v>88</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4090,19 +4063,19 @@
         <v>89</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4113,19 +4086,19 @@
         <v>90</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4136,19 +4109,19 @@
         <v>91</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4159,19 +4132,19 @@
         <v>92</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4182,19 +4155,19 @@
         <v>93</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4205,19 +4178,19 @@
         <v>94</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4228,19 +4201,19 @@
         <v>95</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4251,19 +4224,19 @@
         <v>96</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4274,19 +4247,19 @@
         <v>97</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4297,19 +4270,19 @@
         <v>98</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4320,19 +4293,19 @@
         <v>99</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4343,19 +4316,19 @@
         <v>100</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4366,19 +4339,19 @@
         <v>101</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4389,19 +4362,19 @@
         <v>102</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4412,19 +4385,19 @@
         <v>103</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4435,19 +4408,19 @@
         <v>104</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F104" s="2">
-        <v>5</v>
+        <v>415</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4458,19 +4431,19 @@
         <v>105</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F105" s="2">
-        <v>5</v>
+        <v>415</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4481,19 +4454,19 @@
         <v>106</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4504,19 +4477,19 @@
         <v>107</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F107" s="2">
-        <v>5</v>
+        <v>417</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4527,19 +4500,19 @@
         <v>108</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F108" s="2">
-        <v>5</v>
+        <v>418</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4550,19 +4523,19 @@
         <v>109</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F109" s="2">
-        <v>5</v>
+        <v>419</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4573,19 +4546,19 @@
         <v>110</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F110" s="2">
-        <v>5</v>
+        <v>420</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4596,19 +4569,19 @@
         <v>111</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F111" s="2">
-        <v>5</v>
+        <v>420</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4619,19 +4592,19 @@
         <v>112</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F112" s="2">
-        <v>5</v>
+        <v>421</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4642,19 +4615,19 @@
         <v>113</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F113" s="2">
-        <v>5</v>
+        <v>421</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4665,19 +4638,19 @@
         <v>114</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F114" s="2">
-        <v>5</v>
+        <v>421</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4688,19 +4661,19 @@
         <v>115</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F115" s="2">
-        <v>5</v>
+        <v>391</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4711,19 +4684,19 @@
         <v>116</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4734,19 +4707,19 @@
         <v>117</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4757,19 +4730,19 @@
         <v>118</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4780,19 +4753,19 @@
         <v>119</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4803,19 +4776,19 @@
         <v>120</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F120" s="2">
-        <v>5</v>
+        <v>423</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4826,19 +4799,19 @@
         <v>121</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
